--- a/biology/Botanique/Eugène_Boullet_(rose)/Eugène_Boullet_(rose).xlsx
+++ b/biology/Botanique/Eugène_Boullet_(rose)/Eugène_Boullet_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boullet_(rose)</t>
+          <t>Eugène_Boullet_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Eugène Boullet' est un cultivar de rosier hybride de thé obtenu en 1909 et mis au commerce en 1910 par le rosiériste lyonnais Joseph Pernet-Ducher. Il est issu du croisement 'Étoile de France' (Pernet-Ducher, 1903) x 'Laurent Carle' (Pernet-Ducher, 1907)[1]. Cette variété est toujours commercialisée dans les catalogues de roses anciennes.
+'Eugène Boullet' est un cultivar de rosier hybride de thé obtenu en 1909 et mis au commerce en 1910 par le rosiériste lyonnais Joseph Pernet-Ducher. Il est issu du croisement 'Étoile de France' (Pernet-Ducher, 1903) x 'Laurent Carle' (Pernet-Ducher, 1907). Cette variété est toujours commercialisée dans les catalogues de roses anciennes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Boullet_(rose)</t>
+          <t>Eugène_Boullet_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété donne de grandes fleurs rouge écarlate à rouge cramoisi, aux nuances carmin[2], avec un joli aspect chiffonné. Elles sont pleines et doubles (17-25 pétales), fleurissent généralement en solitaire. La floraison est remontante.
-Son buisson à rameaux peu divergents est vigoureux et supporte les hivers froids[1]. Son feuillage est vert bronzé. Il s'élève à 110 cm en moyenne[3]. 
-C'est une excellente variété pour les massifs[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété donne de grandes fleurs rouge écarlate à rouge cramoisi, aux nuances carmin, avec un joli aspect chiffonné. Elles sont pleines et doubles (17-25 pétales), fleurissent généralement en solitaire. La floraison est remontante.
+Son buisson à rameaux peu divergents est vigoureux et supporte les hivers froids. Son feuillage est vert bronzé. Il s'élève à 110 cm en moyenne. 
+C'est une excellente variété pour les massifs.
 </t>
         </is>
       </c>
